--- a/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 38 - Whirlpool/99RP279_S38_Handler.xlsx
+++ b/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 38 - Whirlpool/99RP279_S38_Handler.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/dso/ProLeiT/Massafra/MassafraSQL/ProLeiTAG/Massafra/Update/Values/Procedures/Decoction Line A - 99RP/Sequence 38 - Whirlpool/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F13B955-3A63-F449-8534-ADAA3568F8A1}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDF619DA-605F-9F41-83B9-A32C6A081856}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-9520" yWindow="-21140" windowWidth="51200" windowHeight="21140" activeTab="11" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
+    <workbookView xWindow="-9520" yWindow="-21600" windowWidth="25560" windowHeight="21600" firstSheet="1" activeTab="7" xr2:uid="{D1D26D2E-F865-E045-8F90-C0A773A3A1DA}"/>
   </bookViews>
   <sheets>
     <sheet name="00 Value Source" sheetId="2" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1053" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1059" uniqueCount="106">
   <si>
     <r>
       <t xml:space="preserve">UPDATE </t>
@@ -488,12 +488,30 @@
   <si>
     <t>9RP261.2357:354MONT</t>
   </si>
+  <si>
+    <t>030: MES: RBT actual value dosing amount</t>
+  </si>
+  <si>
+    <t>031: MES: RBT active tank</t>
+  </si>
+  <si>
+    <t>032: MES Tempo sosta a caldo al whirlpool</t>
+  </si>
+  <si>
+    <t>30</t>
+  </si>
+  <si>
+    <t>31</t>
+  </si>
+  <si>
+    <t>32</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="10" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -557,8 +575,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="10">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -611,6 +636,18 @@
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
   </fills>
@@ -773,7 +810,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="56">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -878,6 +915,8 @@
     <xf numFmtId="0" fontId="8" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="10" fillId="11" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -7825,7 +7864,7 @@
   <sheetPr codeName="Sheet13"/>
   <dimension ref="A1:F146"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
@@ -10478,8 +10517,8 @@
   <sheetPr codeName="Sheet6"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="N3" sqref="N3:O15"/>
+    <sheetView topLeftCell="I1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -10598,6 +10637,12 @@
       <c r="I3" s="4" t="s">
         <v>36</v>
       </c>
+      <c r="J3" s="57" t="s">
+        <v>103</v>
+      </c>
+      <c r="K3" s="56" t="s">
+        <v>100</v>
+      </c>
       <c r="N3" s="11">
         <f>'00 Value Source'!H1</f>
         <v>10</v>
@@ -10640,6 +10685,12 @@
       <c r="I4" s="4" t="s">
         <v>42</v>
       </c>
+      <c r="J4" s="57" t="s">
+        <v>104</v>
+      </c>
+      <c r="K4" s="56" t="s">
+        <v>101</v>
+      </c>
       <c r="N4" s="11">
         <f>'00 Value Source'!H2</f>
         <v>11</v>
@@ -10681,6 +10732,12 @@
       </c>
       <c r="I5" s="4" t="s">
         <v>46</v>
+      </c>
+      <c r="J5" s="57" t="s">
+        <v>105</v>
+      </c>
+      <c r="K5" s="56" t="s">
+        <v>102</v>
       </c>
       <c r="N5" s="11">
         <f>'00 Value Source'!H3</f>
@@ -16345,7 +16402,7 @@
   <sheetPr codeName="Sheet7"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:I27"/>
     </sheetView>
   </sheetViews>
@@ -22669,7 +22726,7 @@
   <sheetPr codeName="Sheet8"/>
   <dimension ref="A1:P404"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView topLeftCell="D1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="F3" sqref="F3:L39"/>
     </sheetView>
   </sheetViews>
@@ -29388,7 +29445,7 @@
   <sheetPr codeName="Sheet9"/>
   <dimension ref="A1:T263"/>
   <sheetViews>
-    <sheetView topLeftCell="F1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
       <selection activeCell="O19" sqref="O19"/>
     </sheetView>
   </sheetViews>
@@ -34597,14 +34654,14 @@
     <row r="2" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A2" s="38" t="str">
         <f>CONCATENATE(B2,C2,D2,E2)</f>
-        <v>-- Value: Massafra -   | Bergamo - 010: MES: RBT actual value dosing amount</v>
+        <v>-- Value: Massafra -  030: MES: RBT actual value dosing amount | Bergamo - 010: MES: RBT actual value dosing amount</v>
       </c>
       <c r="B2" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C2" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$3="NULL","",IF(ISBLANK('01 Value Comparison'!$K$3),"",'01 Value Comparison'!$K$3))</f>
-        <v/>
+        <v>030: MES: RBT actual value dosing amount</v>
       </c>
       <c r="D2" s="25" t="s">
         <v>20</v>
@@ -34670,14 +34727,14 @@
     <row r="7" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A7" s="38" t="str">
         <f>CONCATENATE(B7,C7,D7,E7)</f>
-        <v>-- Value: Massafra -   | Bergamo - 003: MES: RBT active tank</v>
+        <v>-- Value: Massafra -  031: MES: RBT active tank | Bergamo - 003: MES: RBT active tank</v>
       </c>
       <c r="B7" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C7" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$4="NULL","",IF(ISBLANK('01 Value Comparison'!$K$4),"",'01 Value Comparison'!$K$4))</f>
-        <v/>
+        <v>031: MES: RBT active tank</v>
       </c>
       <c r="D7" s="25" t="s">
         <v>20</v>
@@ -34743,14 +34800,14 @@
     <row r="12" spans="1:6" s="22" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="38" t="str">
         <f>CONCATENATE(B12,C12,D12,E12)</f>
-        <v>-- Value: Massafra -   | Bergamo - 012: MES Tempo sosta a caldo al whirlpool</v>
+        <v>-- Value: Massafra -  032: MES Tempo sosta a caldo al whirlpool | Bergamo - 012: MES Tempo sosta a caldo al whirlpool</v>
       </c>
       <c r="B12" s="21" t="s">
         <v>21</v>
       </c>
       <c r="C12" s="29" t="str">
         <f>IF('01 Value Comparison'!$K$5="NULL","",IF(ISBLANK('01 Value Comparison'!$K$5),"",'01 Value Comparison'!$K$5))</f>
-        <v/>
+        <v>032: MES Tempo sosta a caldo al whirlpool</v>
       </c>
       <c r="D12" s="25" t="s">
         <v>20</v>
